--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D47640-01CD-4047-9853-73E39591B0FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3EFD3-8303-4B58-84EA-EE1662210EDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Ambiente</t>
   </si>
@@ -54,14 +54,23 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>1220194200610</t>
+    <t>1120170200906</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>1120170200907</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +83,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,16 +110,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B9E65-C06E-45A4-A7F6-A46B8429DFA4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +478,27 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3EFD3-8303-4B58-84EA-EE1662210EDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526664D-F368-4563-892C-B49DF60A10AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>1120170200907</t>
+    <t>1120170200908</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526664D-F368-4563-892C-B49DF60A10AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D1D57-BB3D-4D93-9B24-B7B5B2D9F36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ambiente</t>
   </si>
@@ -54,9 +54,6 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>1120170200906</t>
-  </si>
-  <si>
     <t>i-preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>1120170200908</t>
+  </si>
+  <si>
+    <t>dgariffo</t>
+  </si>
+  <si>
+    <t>1120194100385</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,21 +472,21 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D1D57-BB3D-4D93-9B24-B7B5B2D9F36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5F5C3-26CD-4F0D-B6C3-361DDB620F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -54,19 +54,19 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>1120170200908</t>
-  </si>
-  <si>
     <t>dgariffo</t>
   </si>
   <si>
     <t>1120194100385</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200917   </t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,21 +472,21 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5F5C3-26CD-4F0D-B6C3-361DDB620F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93894A-052F-43E9-BF71-6548CCD9F057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200917   </t>
+    <t xml:space="preserve">1120170200926   </t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93894A-052F-43E9-BF71-6548CCD9F057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE09E047-7491-4347-9F92-4191650461A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -57,16 +57,16 @@
     <t>dgariffo</t>
   </si>
   <si>
-    <t>1120194100385</t>
-  </si>
-  <si>
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200926   </t>
+    <t>1120194100404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200928   </t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,15 +478,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE09E047-7491-4347-9F92-4191650461A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D7148-4259-420E-B463-78693F93BD7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Ambiente</t>
   </si>
@@ -63,10 +63,13 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t>1120194100404</t>
-  </si>
-  <si>
     <t xml:space="preserve">1120170200928   </t>
+  </si>
+  <si>
+    <t>1120194100405</t>
+  </si>
+  <si>
+    <t>1220194200662</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B9E65-C06E-45A4-A7F6-A46B8429DFA4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,29 +481,46 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D7148-4259-420E-B463-78693F93BD7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDBABD6-BEB8-490F-8F19-92CEC97F4B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t xml:space="preserve">1120170200928   </t>
   </si>
   <si>
-    <t>1120194100405</t>
-  </si>
-  <si>
-    <t>1220194200662</t>
+    <t>1120194100412</t>
+  </si>
+  <si>
+    <t>1220194200667</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDBABD6-BEB8-490F-8F19-92CEC97F4B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E132C-F10B-4A22-9EE1-3DFC432C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Ambiente</t>
   </si>
@@ -63,13 +63,16 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200928   </t>
-  </si>
-  <si>
     <t>1120194100412</t>
   </si>
   <si>
-    <t>1220194200667</t>
+    <t>1220170301429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200936   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301429   </t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B9E65-C06E-45A4-A7F6-A46B8429DFA4}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -498,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,18 +512,36 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{45A517EF-F937-4CF3-9BC2-F4E43A955B11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E132C-F10B-4A22-9EE1-3DFC432C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90317DCA-1B9C-4E9D-8396-8E4CCE821145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Ambiente</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">1220170301429   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406715 </t>
+  </si>
+  <si>
+    <t>mgentilini</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B9E65-C06E-45A4-A7F6-A46B8429DFA4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -478,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -501,15 +507,15 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -517,8 +523,8 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,19 +535,36 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{45A517EF-F937-4CF3-9BC2-F4E43A955B11}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{45A517EF-F937-4CF3-9BC2-F4E43A955B11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90317DCA-1B9C-4E9D-8396-8E4CCE821145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2659-DBBB-4436-9DE9-93E336EAA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Ambiente</t>
   </si>
@@ -63,22 +63,31 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t>1120194100412</t>
-  </si>
-  <si>
-    <t>1220170301429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120170200936   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301429   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420194406715 </t>
-  </si>
-  <si>
     <t>mgentilini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406812 </t>
+  </si>
+  <si>
+    <t>1220194200683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301437   </t>
+  </si>
+  <si>
+    <t>cnapolitano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200939   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301442   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200942   </t>
+  </si>
+  <si>
+    <t>rsuarez</t>
   </si>
 </sst>
 </file>
@@ -451,13 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B9E65-C06E-45A4-A7F6-A46B8429DFA4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -484,16 +496,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -507,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -524,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,13 +547,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,19 +564,55 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{9F85603E-8947-41C3-AEF4-568B0E25B994}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{45A517EF-F937-4CF3-9BC2-F4E43A955B11}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{CC039EDE-CF8D-41EE-9078-9D40F096D62F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{84A139FC-F13E-486C-89D3-520F90E7B418}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{7895A980-00FE-47A2-88B9-C406677772B5}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{E39C35AF-7AE8-4B3E-B267-A531DB51FF6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/AprobacionesPreviasAPago.xlsx
+++ b/SuraClaims/AprobacionesPreviasAPago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2659-DBBB-4436-9DE9-93E336EAA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84CE2E-7394-4917-9A0B-9C8F6AF23B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D25DB973-7044-4683-AF33-2EEB0F8C9B88}"/>
   </bookViews>
@@ -69,25 +69,25 @@
     <t xml:space="preserve">0420194406812 </t>
   </si>
   <si>
-    <t>1220194200683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301437   </t>
-  </si>
-  <si>
     <t>cnapolitano</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200939   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301442   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120170200942   </t>
-  </si>
-  <si>
     <t>rsuarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200967   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220194200694    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120194100448   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120194100448     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220194200694 </t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
